--- a/biology/Médecine/Agence_régionale_de_l'hospitalisation/Agence_régionale_de_l'hospitalisation.xlsx
+++ b/biology/Médecine/Agence_régionale_de_l'hospitalisation/Agence_régionale_de_l'hospitalisation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agence_r%C3%A9gionale_de_l%27hospitalisation</t>
+          <t>Agence_régionale_de_l'hospitalisation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les agences régionales de l'hospitalisation (ARH) étaient, en France, d’anciens organismes régionaux de gestion des hôpitaux publics.
-Mises en place lors de la réforme dite « Juppé » de l'assurance-maladie par l'ordonnance du 24 avril 1996[1] et devenues opérationnelles au cours du premier trimestre 1997, les ARH ont laissé la place le 1er avril 2010 aux agences régionales de santé voulues par la loi portant réforme de l'hôpital et relative aux patients, à la santé et aux territoires. 
+Mises en place lors de la réforme dite « Juppé » de l'assurance-maladie par l'ordonnance du 24 avril 1996 et devenues opérationnelles au cours du premier trimestre 1997, les ARH ont laissé la place le 1er avril 2010 aux agences régionales de santé voulues par la loi portant réforme de l'hôpital et relative aux patients, à la santé et aux territoires. 
 Les agences régionales de l'hospitalisation avaient pour but de déconcentrer du niveau ministériel au niveau régional l'organisation de l'hospitalisation publique et privée. Ces agences se voulaient des instances de coordination, faisant appel aux services de l'État reprenant en fait les moyens existants des administrations déconcentrées du ministère de la Santé (DDASS, DRASS, médecin inspecteur régional) et de l'Assurance Maladie (CRAM et échelon régional du contrôle médical). 
 Administrativement, les ARH sont d'ailleurs des groupements d'intérêt public (GIP) constitués à parité entre l'État et les organismes d'assurance maladie, et dont le directeur de la DRASS et celui de la CRAM sont les vice-présidents. Par ailleurs, les ARH avaient un rôle d'administrations de missions placées sous la tutelle du ministère de la santé.
 Les ARH sont chargées de mettre en œuvre, au niveau régional, la politique hospitalière définie par le Gouvernement, d'analyser et de coordonner l'activité des établissements de santé publics et privés, de conclure avec eux des contrats pluriannuels d'objectifs et de moyens et de déterminer leurs ressources.
